--- a/tests/data/desired/layoutlimitsreport.xlsx
+++ b/tests/data/desired/layoutlimitsreport.xlsx
@@ -222,7 +222,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0.03</v>
@@ -248,7 +248,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>1.0</v>
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>97.0</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>0.97</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257.0</v>
+        <v>10.0</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0.03745318352059925</v>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>257.0</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>0.9922779922779923</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.0</v>
+        <v>257.0</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>0.969811320754717</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0.0</v>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>1.0</v>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>1.0</v>

--- a/tests/data/desired/layoutlimitsreport.xlsx
+++ b/tests/data/desired/layoutlimitsreport.xlsx
@@ -44,7 +44,7 @@
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -57,16 +57,189 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,7 +247,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -83,17 +258,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,7 +268,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,16 +289,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -164,7 +360,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="27" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -172,12 +368,12 @@
       <c r="B2" t="n">
         <v>100.0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="28" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -185,12 +381,12 @@
       <c r="B3" t="n">
         <v>61.0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="28" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -198,12 +394,12 @@
       <c r="B4" t="n">
         <v>39.0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="28" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -211,12 +407,12 @@
       <c r="B5" t="n">
         <v>97.0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="28" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -224,12 +420,12 @@
       <c r="B6" t="n">
         <v>3.0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="28" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -237,12 +433,12 @@
       <c r="B7" t="n">
         <v>97.0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="28" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -250,12 +446,12 @@
       <c r="B8" t="n">
         <v>97.0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="28" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -263,12 +459,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -276,12 +472,12 @@
       <c r="B10" t="n">
         <v>100.0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="28" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -289,12 +485,12 @@
       <c r="B11" t="n">
         <v>97.0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="28" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -302,7 +498,7 @@
       <c r="B12" t="n">
         <v>3.0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="28" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -337,372 +533,372 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>STAMP (Source1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>STAMP (Source2)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source2)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>NAME (Source1)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>NAME (Source2)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>FVALUE (Source1)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="10" t="inlineStr">
         <is>
           <t>FVALUE (Source2)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="10" t="inlineStr">
         <is>
           <t>BDVALUE (Source1)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="10" t="inlineStr">
         <is>
           <t>BDVALUE (Source2)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="25" t="n">
         <v>6.0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="25" t="n">
         <v>133.0</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="26" t="n">
         <v>40897.467511574076</v>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E2" s="25" t="n">
         <v>0.0</v>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>LastName133</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I2" s="25" t="n">
         <v>13.0</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="n">
+      <c r="J2" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K2" s="25" t="n">
         <v>13.0</v>
       </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="L2" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M2" s="25" t="inlineStr">
         <is>
           <t>13.0000000</t>
         </is>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="25" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="25" t="n">
         <v>6.0</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="25" t="n">
         <v>266.0</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="26" t="n">
         <v>40897.460023148145</v>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E3" s="25" t="n">
         <v>0.0</v>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="F3" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="inlineStr">
         <is>
           <t>LastName266</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I3" s="25" t="n">
         <v>26.0</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="J3" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K3" s="25" t="n">
         <v>26.0</v>
       </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="L3" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M3" s="25" t="inlineStr">
         <is>
           <t>26.0000000</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="N3" s="25" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="25" t="n">
         <v>6.0</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="25" t="n">
         <v>399.0</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="26" t="n">
         <v>40897.469201388885</v>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n">
         <v>1.0</v>
       </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="F4" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>LastName399</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I4" s="25" t="n">
         <v>40.0</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="J4" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K4" s="25" t="n">
         <v>40.0</v>
       </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="L4" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M4" s="25" t="inlineStr">
         <is>
           <t>39.0000000</t>
         </is>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="N4" s="25" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="25" t="n">
         <v>6.0</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="25" t="n">
         <v>532.0</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="26" t="n">
         <v>40897.46171296296</v>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E5" s="25" t="n">
         <v>0.0</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="F5" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G5" s="25" t="inlineStr">
         <is>
           <t>LastName532</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I5" s="25" t="n">
         <v>52.0</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="n">
+      <c r="J5" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K5" s="25" t="n">
         <v>52.0</v>
       </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="L5" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M5" s="25" t="inlineStr">
         <is>
           <t>52.0000000</t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="N5" s="25" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="25" t="n">
         <v>6.0</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="25" t="n">
         <v>665.0</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="26" t="n">
         <v>40897.47019675926</v>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E6" s="25" t="n">
         <v>0.0</v>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="F6" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>LastName665</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I6" s="25" t="n">
         <v>65.0</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="n">
+      <c r="J6" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K6" s="25" t="n">
         <v>65.0</v>
       </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="L6" s="25" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M6" s="25" t="inlineStr">
         <is>
           <t>65.0000000</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="25" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>
@@ -739,372 +935,372 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>STAMP (Source1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>NAME (Source1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>FVALUE (Source1)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>BDVALUE (Source1)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>STAMP (Source2)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>NAME (Source2)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>FVALUE (Source2)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>BDVALUE (Source2)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="23" t="n">
         <v>31.0</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="C2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H2" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I2" s="24" t="n">
         <v>40897.46355324074</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="23" t="n">
         <v>3.0</v>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="23" t="inlineStr">
         <is>
           <t>LastName31</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="23" t="n">
         <v>31.0</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="23" t="n">
         <v>31.0</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="23" t="inlineStr">
         <is>
           <t>31.0000000</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="23" t="n">
         <v>62.0</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="C3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H3" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I3" s="24" t="n">
         <v>40897.46807870371</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="23" t="inlineStr">
         <is>
           <t>LastName62</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="23" t="n">
         <v>62.0</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="23" t="n">
         <v>62.0</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="N3" s="23" t="inlineStr">
         <is>
           <t>62.0000000</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="23" t="n">
         <v>93.0</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="C4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H4" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I4" s="24" t="n">
         <v>40897.47329861111</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="23" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="23" t="inlineStr">
         <is>
           <t>LastName93</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="23" t="n">
         <v>93.0</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="23" t="n">
         <v>93.0</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="N4" s="23" t="inlineStr">
         <is>
           <t>93.0000000</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="23" t="n">
         <v>124.0</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="C5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H5" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I5" s="24" t="n">
         <v>40897.46115740741</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="23" t="n">
         <v>5.0</v>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="23" t="inlineStr">
         <is>
           <t>LastName124</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="23" t="n">
         <v>4.0</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="23" t="n">
         <v>4.0</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="N5" s="23" t="inlineStr">
         <is>
           <t>4.0000000</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="23" t="n">
         <v>6.0</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="23" t="n">
         <v>155.0</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="C6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H6" s="23" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I6" s="24" t="n">
         <v>40897.46637731481</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="23" t="n">
         <v>1.0</v>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="23" t="inlineStr">
         <is>
           <t>LastName155</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="23" t="n">
         <v>35.0</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="23" t="n">
         <v>35.0</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="23" t="inlineStr">
         <is>
           <t>35.0000000</t>
         </is>
@@ -1130,24 +1326,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1155,12 +1351,12 @@
       <c r="B2" t="n">
         <v>267.0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="30" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1168,12 +1364,12 @@
       <c r="B3" t="n">
         <v>167.0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="30" t="n">
         <v>0.6254681647940075</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1181,12 +1377,12 @@
       <c r="B4" t="n">
         <v>100.0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="30" t="n">
         <v>0.37453183520599254</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1194,12 +1390,12 @@
       <c r="B5" t="n">
         <v>257.0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="30" t="n">
         <v>0.9625468164794008</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1207,12 +1403,12 @@
       <c r="B6" t="n">
         <v>10.0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="30" t="n">
         <v>0.03745318352059925</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1220,12 +1416,12 @@
       <c r="B7" t="n">
         <v>259.0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="30" t="n">
         <v>0.9700374531835206</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1233,12 +1429,12 @@
       <c r="B8" t="n">
         <v>257.0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="30" t="n">
         <v>0.9922779922779923</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1246,12 +1442,12 @@
       <c r="B9" t="n">
         <v>2.0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="30" t="n">
         <v>0.007722007722007722</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1259,12 +1455,12 @@
       <c r="B10" t="n">
         <v>265.0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="30" t="n">
         <v>0.9925093632958801</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1272,12 +1468,12 @@
       <c r="B11" t="n">
         <v>257.0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="30" t="n">
         <v>0.969811320754717</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1285,7 +1481,7 @@
       <c r="B12" t="n">
         <v>8.0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="30" t="n">
         <v>0.03018867924528302</v>
       </c>
     </row>
@@ -1309,24 +1505,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1334,12 +1530,12 @@
       <c r="B2" t="n">
         <v>20.0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1347,12 +1543,12 @@
       <c r="B3" t="n">
         <v>14.0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="32" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1360,12 +1556,12 @@
       <c r="B4" t="n">
         <v>6.0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="32" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1373,12 +1569,12 @@
       <c r="B5" t="n">
         <v>20.0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="31" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1386,12 +1582,12 @@
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="32" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1399,12 +1595,12 @@
       <c r="B7" t="n">
         <v>20.0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="31" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1412,12 +1608,12 @@
       <c r="B8" t="n">
         <v>20.0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1425,12 +1621,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="32" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="31" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1438,12 +1634,12 @@
       <c r="B10" t="n">
         <v>20.0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1451,12 +1647,12 @@
       <c r="B11" t="n">
         <v>20.0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="31" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1464,7 +1660,7 @@
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="32" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1491,39 +1687,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Column Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Source1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Source2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -1531,10 +1727,10 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="13" t="n">
         <v>40897.45903935185</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="13" t="n">
         <v>40897.45903935185</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -1542,14 +1738,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -1568,14 +1764,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -1598,14 +1794,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -1624,14 +1820,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -1650,14 +1846,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -1680,14 +1876,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -1695,10 +1891,10 @@
       <c r="B8" t="n">
         <v>2.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="13" t="n">
         <v>40897.45974537037</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="13" t="n">
         <v>40897.45974537037</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -1706,14 +1902,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -1732,14 +1928,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -1762,14 +1958,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -1788,14 +1984,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -1814,14 +2010,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -1844,14 +2040,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -1859,10 +2055,10 @@
       <c r="B14" t="n">
         <v>3.0</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="13" t="n">
         <v>40897.46045138889</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="13" t="n">
         <v>40897.46045138889</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -1870,14 +2066,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -1896,14 +2092,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -1926,14 +2122,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -1952,14 +2148,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -1978,14 +2174,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2008,14 +2204,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2023,10 +2219,10 @@
       <c r="B20" t="n">
         <v>4.0</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="13" t="n">
         <v>40897.46115740741</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="13" t="n">
         <v>40897.46115740741</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -2034,14 +2230,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2060,14 +2256,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2090,14 +2286,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2116,14 +2312,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2142,14 +2338,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2172,14 +2368,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2187,10 +2383,10 @@
       <c r="B26" t="n">
         <v>5.0</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="13" t="n">
         <v>40897.461863425924</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="13" t="n">
         <v>40897.461863425924</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -2198,14 +2394,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2224,14 +2420,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2254,14 +2450,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2280,14 +2476,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2306,14 +2502,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2336,14 +2532,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2351,10 +2547,10 @@
       <c r="B32" t="n">
         <v>6.0</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="13" t="n">
         <v>40897.46256944445</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="13" t="n">
         <v>40897.46256944445</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -2362,14 +2558,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2388,14 +2584,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2418,14 +2614,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2444,14 +2640,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2470,14 +2666,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2500,14 +2696,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2515,10 +2711,10 @@
       <c r="B38" t="n">
         <v>7.0</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="13" t="n">
         <v>40897.463275462964</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="13" t="n">
         <v>40897.463275462964</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -2526,14 +2722,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2552,14 +2748,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2582,14 +2778,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2597,21 +2793,21 @@
       <c r="B41" t="n">
         <v>7.0</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="17" t="n">
         <v>8.0</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="17" t="n">
         <v>7.0</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="18" t="n">
         <v>0.125</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2630,14 +2826,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2660,14 +2856,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2675,10 +2871,10 @@
       <c r="B44" t="n">
         <v>8.0</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="13" t="n">
         <v>40897.46398148148</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="13" t="n">
         <v>40897.46398148148</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -2686,14 +2882,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2712,14 +2908,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2742,14 +2938,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2757,21 +2953,21 @@
       <c r="B47" t="n">
         <v>8.0</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="17" t="n">
         <v>9.0</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="17" t="n">
         <v>8.0</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="18" t="n">
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2790,14 +2986,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2820,14 +3016,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2835,10 +3031,10 @@
       <c r="B50" t="n">
         <v>9.0</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="13" t="n">
         <v>40897.4646875</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="13" t="n">
         <v>40897.4646875</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -2846,14 +3042,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -2872,14 +3068,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -2902,14 +3098,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -2917,21 +3113,21 @@
       <c r="B53" t="n">
         <v>9.0</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="17" t="n">
         <v>10.0</v>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="D53" s="17" t="n">
         <v>9.0</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="18" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -2950,14 +3146,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -2980,14 +3176,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -2995,10 +3191,10 @@
       <c r="B56" t="n">
         <v>10.0</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="13" t="n">
         <v>40897.46539351852</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="13" t="n">
         <v>40897.46539351852</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -3006,14 +3202,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3032,14 +3228,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3062,14 +3258,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3088,14 +3284,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3114,14 +3310,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3144,14 +3340,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3159,10 +3355,10 @@
       <c r="B62" t="n">
         <v>11.0</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="13" t="n">
         <v>40897.466099537036</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="13" t="n">
         <v>40897.466099537036</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -3170,14 +3366,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3196,14 +3392,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3226,14 +3422,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3252,14 +3448,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3278,14 +3474,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
+      <c r="F66" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3308,14 +3504,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3323,10 +3519,10 @@
       <c r="B68" t="n">
         <v>12.0</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="13" t="n">
         <v>40897.46680555555</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="D68" s="13" t="n">
         <v>40897.46680555555</v>
       </c>
       <c r="E68" t="inlineStr">
@@ -3334,14 +3530,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
+      <c r="F68" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3360,14 +3556,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F69" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3390,14 +3586,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
+      <c r="F70" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3416,14 +3612,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
+      <c r="F71" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3442,14 +3638,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F72" s="4" t="inlineStr">
+      <c r="F72" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3472,14 +3668,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="F73" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="A74" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3487,10 +3683,10 @@
       <c r="B74" t="n">
         <v>13.0</v>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="C74" s="13" t="n">
         <v>40897.467511574076</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="13" t="n">
         <v>40897.467511574076</v>
       </c>
       <c r="E74" t="inlineStr">
@@ -3498,14 +3694,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F74" s="4" t="inlineStr">
+      <c r="F74" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3524,14 +3720,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr">
+      <c r="F75" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3554,14 +3750,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F76" s="4" t="inlineStr">
+      <c r="F76" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3580,14 +3776,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F77" s="4" t="inlineStr">
+      <c r="F77" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3606,14 +3802,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F78" s="4" t="inlineStr">
+      <c r="F78" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3636,14 +3832,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F79" s="4" t="inlineStr">
+      <c r="F79" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="A80" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3651,10 +3847,10 @@
       <c r="B80" t="n">
         <v>14.0</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="13" t="n">
         <v>40897.46821759259</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="D80" s="13" t="n">
         <v>40897.46821759259</v>
       </c>
       <c r="E80" t="inlineStr">
@@ -3662,14 +3858,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F80" s="4" t="inlineStr">
+      <c r="F80" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3688,14 +3884,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F81" s="4" t="inlineStr">
+      <c r="F81" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3718,14 +3914,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F82" s="4" t="inlineStr">
+      <c r="F82" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3744,14 +3940,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F83" s="4" t="inlineStr">
+      <c r="F83" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3770,14 +3966,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F84" s="4" t="inlineStr">
+      <c r="F84" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3800,14 +3996,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F85" s="4" t="inlineStr">
+      <c r="F85" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3815,10 +4011,10 @@
       <c r="B86" t="n">
         <v>15.0</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="13" t="n">
         <v>40897.46892361111</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c r="D86" s="13" t="n">
         <v>40897.46892361111</v>
       </c>
       <c r="E86" t="inlineStr">
@@ -3826,14 +4022,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F86" s="4" t="inlineStr">
+      <c r="F86" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -3852,14 +4048,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F87" s="4" t="inlineStr">
+      <c r="F87" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -3882,14 +4078,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F88" s="4" t="inlineStr">
+      <c r="F88" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -3908,14 +4104,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F89" s="4" t="inlineStr">
+      <c r="F89" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -3934,14 +4130,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F90" s="4" t="inlineStr">
+      <c r="F90" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -3964,14 +4160,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F91" s="4" t="inlineStr">
+      <c r="F91" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -3979,10 +4175,10 @@
       <c r="B92" t="n">
         <v>16.0</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="13" t="n">
         <v>40897.46962962963</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="13" t="n">
         <v>40897.46962962963</v>
       </c>
       <c r="E92" t="inlineStr">
@@ -3990,14 +4186,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F92" s="4" t="inlineStr">
+      <c r="F92" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4016,14 +4212,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F93" s="4" t="inlineStr">
+      <c r="F93" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4046,14 +4242,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F94" s="4" t="inlineStr">
+      <c r="F94" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4072,14 +4268,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F95" s="4" t="inlineStr">
+      <c r="F95" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="A96" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4098,14 +4294,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F96" s="4" t="inlineStr">
+      <c r="F96" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="A97" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4128,14 +4324,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr">
+      <c r="F97" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -4143,10 +4339,10 @@
       <c r="B98" t="n">
         <v>17.0</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="13" t="n">
         <v>40897.47033564815</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="13" t="n">
         <v>40897.47033564815</v>
       </c>
       <c r="E98" t="inlineStr">
@@ -4154,14 +4350,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F98" s="4" t="inlineStr">
+      <c r="F98" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4180,14 +4376,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr">
+      <c r="F99" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="A100" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4210,14 +4406,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F100" s="4" t="inlineStr">
+      <c r="F100" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4225,21 +4421,21 @@
       <c r="B101" t="n">
         <v>17.0</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" s="17" t="n">
         <v>18.0</v>
       </c>
-      <c r="D101" s="5" t="n">
+      <c r="D101" s="17" t="n">
         <v>17.0</v>
       </c>
-      <c r="E101" s="5" t="n">
+      <c r="E101" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F101" s="6" t="n">
+      <c r="F101" s="18" t="n">
         <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4258,14 +4454,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F102" s="4" t="inlineStr">
+      <c r="F102" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4288,14 +4484,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr">
+      <c r="F103" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -4303,10 +4499,10 @@
       <c r="B104" t="n">
         <v>18.0</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="13" t="n">
         <v>40897.471041666664</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="D104" s="13" t="n">
         <v>40897.471041666664</v>
       </c>
       <c r="E104" t="inlineStr">
@@ -4314,14 +4510,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F104" s="4" t="inlineStr">
+      <c r="F104" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4340,14 +4536,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F105" s="4" t="inlineStr">
+      <c r="F105" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
+      <c r="A106" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4370,14 +4566,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F106" s="4" t="inlineStr">
+      <c r="F106" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
+      <c r="A107" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4385,21 +4581,21 @@
       <c r="B107" t="n">
         <v>18.0</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" s="17" t="n">
         <v>19.0</v>
       </c>
-      <c r="D107" s="5" t="n">
+      <c r="D107" s="17" t="n">
         <v>18.0</v>
       </c>
-      <c r="E107" s="5" t="n">
+      <c r="E107" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F107" s="6" t="n">
+      <c r="F107" s="18" t="n">
         <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="A108" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4418,14 +4614,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F108" s="4" t="inlineStr">
+      <c r="F108" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+      <c r="A109" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4448,14 +4644,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F109" s="4" t="inlineStr">
+      <c r="F109" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
+      <c r="A110" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -4463,10 +4659,10 @@
       <c r="B110" t="n">
         <v>19.0</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="13" t="n">
         <v>40897.47174768519</v>
       </c>
-      <c r="D110" s="3" t="n">
+      <c r="D110" s="13" t="n">
         <v>40897.47174768519</v>
       </c>
       <c r="E110" t="inlineStr">
@@ -4474,14 +4670,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F110" s="4" t="inlineStr">
+      <c r="F110" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
+      <c r="A111" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4500,14 +4696,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F111" s="4" t="inlineStr">
+      <c r="F111" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
+      <c r="A112" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4530,14 +4726,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F112" s="4" t="inlineStr">
+      <c r="F112" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+      <c r="A113" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4545,21 +4741,21 @@
       <c r="B113" t="n">
         <v>19.0</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="17" t="n">
         <v>20.0</v>
       </c>
-      <c r="D113" s="5" t="n">
+      <c r="D113" s="17" t="n">
         <v>19.0</v>
       </c>
-      <c r="E113" s="5" t="n">
+      <c r="E113" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F113" s="6" t="n">
+      <c r="F113" s="18" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4578,14 +4774,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F114" s="4" t="inlineStr">
+      <c r="F114" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4608,14 +4804,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F115" s="4" t="inlineStr">
+      <c r="F115" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="12" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -4623,10 +4819,10 @@
       <c r="B116" t="n">
         <v>20.0</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="13" t="n">
         <v>40897.472453703704</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c r="D116" s="13" t="n">
         <v>40897.472453703704</v>
       </c>
       <c r="E116" t="inlineStr">
@@ -4634,14 +4830,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F116" s="4" t="inlineStr">
+      <c r="F116" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" s="12" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4660,14 +4856,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F117" s="4" t="inlineStr">
+      <c r="F117" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
+      <c r="A118" s="12" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4690,14 +4886,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F118" s="4" t="inlineStr">
+      <c r="F118" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
+      <c r="A119" s="12" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4716,14 +4912,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="F119" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
+      <c r="A120" s="12" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4742,14 +4938,14 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F120" s="4" t="inlineStr">
+      <c r="F120" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
+      <c r="A121" s="12" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4772,7 +4968,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="F121" s="4" t="inlineStr">
+      <c r="F121" s="14" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4802,44 +4998,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Column Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Ratio of Diffs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Relative Difference</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t># of Rows</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Total Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="33" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
@@ -4847,7 +5043,7 @@
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
@@ -4855,7 +5051,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="33" t="inlineStr">
         <is>
           <t>PARTY_TYPE</t>
         </is>
@@ -4863,10 +5059,10 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="34" t="n">
         <v>0.0</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
@@ -4880,7 +5076,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="33" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -4888,7 +5084,7 @@
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
@@ -4896,7 +5092,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="33" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
@@ -4904,10 +5100,10 @@
       <c r="B5" t="n">
         <v>6.0</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="34" t="n">
         <v>0.027777777777777776</v>
       </c>
       <c r="E5" t="n">
@@ -4921,7 +5117,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="33" t="inlineStr">
         <is>
           <t>FVALUE</t>
         </is>
@@ -4929,10 +5125,10 @@
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="34" t="n">
         <v>0.0</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
@@ -4946,7 +5142,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="33" t="inlineStr">
         <is>
           <t>BDVALUE</t>
         </is>
@@ -4954,10 +5150,10 @@
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="34" t="n">
         <v>0.0</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
@@ -5001,72 +5197,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>STAMP (Source1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>STAMP (Source2)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source2)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>NAME (Source1)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>NAME (Source2)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>FVALUE (Source1)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>FVALUE (Source2)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>BDVALUE (Source1)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>BDVALUE (Source2)</t>
         </is>
@@ -5079,10 +5275,10 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="15" t="n">
         <v>40897.45903935185</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="15" t="n">
         <v>40897.45903935185</v>
       </c>
       <c r="E2" t="n">
@@ -5131,10 +5327,10 @@
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="15" t="n">
         <v>40897.45974537037</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="15" t="n">
         <v>40897.45974537037</v>
       </c>
       <c r="E3" t="n">
@@ -5183,10 +5379,10 @@
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="15" t="n">
         <v>40897.46045138889</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="15" t="n">
         <v>40897.46045138889</v>
       </c>
       <c r="E4" t="n">
@@ -5235,10 +5431,10 @@
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="15" t="n">
         <v>40897.46115740741</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="15" t="n">
         <v>40897.46115740741</v>
       </c>
       <c r="E5" t="n">
@@ -5287,10 +5483,10 @@
       <c r="B6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="15" t="n">
         <v>40897.461863425924</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="15" t="n">
         <v>40897.461863425924</v>
       </c>
       <c r="E6" t="n">
@@ -5339,10 +5535,10 @@
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="15" t="n">
         <v>40897.46256944445</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="15" t="n">
         <v>40897.46256944445</v>
       </c>
       <c r="E7" t="n">
@@ -5385,16 +5581,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="15" t="n">
         <v>40897.463275462964</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="15" t="n">
         <v>40897.463275462964</v>
       </c>
       <c r="E8" t="n">
@@ -5413,10 +5609,10 @@
           <t>LastName7</t>
         </is>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="19" t="n">
         <v>8.0</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="19" t="n">
         <v>7.0</v>
       </c>
       <c r="K8" t="n">
@@ -5437,16 +5633,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="15" t="n">
         <v>40897.46398148148</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="15" t="n">
         <v>40897.46398148148</v>
       </c>
       <c r="E9" t="n">
@@ -5465,10 +5661,10 @@
           <t>LastName8</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="19" t="n">
         <v>9.0</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="19" t="n">
         <v>8.0</v>
       </c>
       <c r="K9" t="n">
@@ -5489,16 +5685,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="15" t="n">
         <v>40897.4646875</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="15" t="n">
         <v>40897.4646875</v>
       </c>
       <c r="E10" t="n">
@@ -5517,10 +5713,10 @@
           <t>LastName9</t>
         </is>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="19" t="n">
         <v>10.0</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="19" t="n">
         <v>9.0</v>
       </c>
       <c r="K10" t="n">
@@ -5547,10 +5743,10 @@
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="15" t="n">
         <v>40897.46539351852</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="15" t="n">
         <v>40897.46539351852</v>
       </c>
       <c r="E11" t="n">
@@ -5599,10 +5795,10 @@
       <c r="B12" t="n">
         <v>11.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="15" t="n">
         <v>40897.466099537036</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="15" t="n">
         <v>40897.466099537036</v>
       </c>
       <c r="E12" t="n">
@@ -5651,10 +5847,10 @@
       <c r="B13" t="n">
         <v>12.0</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="15" t="n">
         <v>40897.46680555555</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="15" t="n">
         <v>40897.46680555555</v>
       </c>
       <c r="E13" t="n">
@@ -5703,10 +5899,10 @@
       <c r="B14" t="n">
         <v>13.0</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="15" t="n">
         <v>40897.467511574076</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="15" t="n">
         <v>40897.467511574076</v>
       </c>
       <c r="E14" t="n">
@@ -5755,10 +5951,10 @@
       <c r="B15" t="n">
         <v>14.0</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="15" t="n">
         <v>40897.46821759259</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="15" t="n">
         <v>40897.46821759259</v>
       </c>
       <c r="E15" t="n">
@@ -5807,10 +6003,10 @@
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="15" t="n">
         <v>40897.46892361111</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="15" t="n">
         <v>40897.46892361111</v>
       </c>
       <c r="E16" t="n">
@@ -5859,10 +6055,10 @@
       <c r="B17" t="n">
         <v>16.0</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="15" t="n">
         <v>40897.46962962963</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="15" t="n">
         <v>40897.46962962963</v>
       </c>
       <c r="E17" t="n">
@@ -5905,16 +6101,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="15" t="n">
         <v>40897.47033564815</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="15" t="n">
         <v>40897.47033564815</v>
       </c>
       <c r="E18" t="n">
@@ -5933,10 +6129,10 @@
           <t>LastName17</t>
         </is>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="19" t="n">
         <v>18.0</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="19" t="n">
         <v>17.0</v>
       </c>
       <c r="K18" t="n">
@@ -5957,16 +6153,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="15" t="n">
         <v>40897.471041666664</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="15" t="n">
         <v>40897.471041666664</v>
       </c>
       <c r="E19" t="n">
@@ -5985,10 +6181,10 @@
           <t>LastName18</t>
         </is>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="19" t="n">
         <v>19.0</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="19" t="n">
         <v>18.0</v>
       </c>
       <c r="K19" t="n">
@@ -6009,16 +6205,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="19" t="n">
         <v>1.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="15" t="n">
         <v>40897.47174768519</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="15" t="n">
         <v>40897.47174768519</v>
       </c>
       <c r="E20" t="n">
@@ -6037,10 +6233,10 @@
           <t>LastName19</t>
         </is>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="19" t="n">
         <v>20.0</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="19" t="n">
         <v>19.0</v>
       </c>
       <c r="K20" t="n">
@@ -6067,10 +6263,10 @@
       <c r="B21" t="n">
         <v>20.0</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="15" t="n">
         <v>40897.472453703704</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="15" t="n">
         <v>40897.472453703704</v>
       </c>
       <c r="E21" t="n">
@@ -6143,72 +6339,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>STAMP (Source1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>NAME (Source1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>FVALUE (Source1)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>BDVALUE (Source1)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>STAMP (Source2)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>NAME (Source2)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>FVALUE (Source2)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>BDVALUE (Source2)</t>
         </is>
@@ -6221,7 +6417,7 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="16" t="n">
         <v>40897.45903935185</v>
       </c>
       <c r="D2" t="n">
@@ -6243,7 +6439,7 @@
           <t>1.0000000</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="16" t="n">
         <v>40897.45903935185</v>
       </c>
       <c r="J2" t="n">
@@ -6273,7 +6469,7 @@
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="16" t="n">
         <v>40897.45974537037</v>
       </c>
       <c r="D3" t="n">
@@ -6295,7 +6491,7 @@
           <t>2.0000000</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="16" t="n">
         <v>40897.45974537037</v>
       </c>
       <c r="J3" t="n">
@@ -6325,7 +6521,7 @@
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="16" t="n">
         <v>40897.46045138889</v>
       </c>
       <c r="D4" t="n">
@@ -6347,7 +6543,7 @@
           <t>3.0000000</t>
         </is>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="16" t="n">
         <v>40897.46045138889</v>
       </c>
       <c r="J4" t="n">
@@ -6377,7 +6573,7 @@
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="16" t="n">
         <v>40897.46115740741</v>
       </c>
       <c r="D5" t="n">
@@ -6399,7 +6595,7 @@
           <t>4.0000000</t>
         </is>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="16" t="n">
         <v>40897.46115740741</v>
       </c>
       <c r="J5" t="n">
@@ -6429,7 +6625,7 @@
       <c r="B6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="16" t="n">
         <v>40897.461863425924</v>
       </c>
       <c r="D6" t="n">
@@ -6451,7 +6647,7 @@
           <t>5.0000000</t>
         </is>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="16" t="n">
         <v>40897.461863425924</v>
       </c>
       <c r="J6" t="n">
@@ -6481,7 +6677,7 @@
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="16" t="n">
         <v>40897.46256944445</v>
       </c>
       <c r="D7" t="n">
@@ -6503,7 +6699,7 @@
           <t>6.0000000</t>
         </is>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="16" t="n">
         <v>40897.46256944445</v>
       </c>
       <c r="J7" t="n">
@@ -6527,13 +6723,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="16" t="n">
         <v>40897.463275462964</v>
       </c>
       <c r="D8" t="n">
@@ -6544,7 +6740,7 @@
           <t>LastName7</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="20" t="n">
         <v>8.0</v>
       </c>
       <c r="G8" t="n">
@@ -6555,7 +6751,7 @@
           <t>7.0000000</t>
         </is>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="16" t="n">
         <v>40897.463275462964</v>
       </c>
       <c r="J8" t="n">
@@ -6566,7 +6762,7 @@
           <t>LastName7</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="20" t="n">
         <v>7.0</v>
       </c>
       <c r="M8" t="n">
@@ -6579,13 +6775,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="16" t="n">
         <v>40897.46398148148</v>
       </c>
       <c r="D9" t="n">
@@ -6596,7 +6792,7 @@
           <t>LastName8</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="20" t="n">
         <v>9.0</v>
       </c>
       <c r="G9" t="n">
@@ -6607,7 +6803,7 @@
           <t>8.0000000</t>
         </is>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="16" t="n">
         <v>40897.46398148148</v>
       </c>
       <c r="J9" t="n">
@@ -6618,7 +6814,7 @@
           <t>LastName8</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="20" t="n">
         <v>8.0</v>
       </c>
       <c r="M9" t="n">
@@ -6631,13 +6827,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="16" t="n">
         <v>40897.4646875</v>
       </c>
       <c r="D10" t="n">
@@ -6648,7 +6844,7 @@
           <t>LastName9</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="20" t="n">
         <v>10.0</v>
       </c>
       <c r="G10" t="n">
@@ -6659,7 +6855,7 @@
           <t>9.0000000</t>
         </is>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="16" t="n">
         <v>40897.4646875</v>
       </c>
       <c r="J10" t="n">
@@ -6670,7 +6866,7 @@
           <t>LastName9</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="20" t="n">
         <v>9.0</v>
       </c>
       <c r="M10" t="n">
@@ -6689,7 +6885,7 @@
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="16" t="n">
         <v>40897.46539351852</v>
       </c>
       <c r="D11" t="n">
@@ -6711,7 +6907,7 @@
           <t>10.0000000</t>
         </is>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="16" t="n">
         <v>40897.46539351852</v>
       </c>
       <c r="J11" t="n">
@@ -6741,7 +6937,7 @@
       <c r="B12" t="n">
         <v>11.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="16" t="n">
         <v>40897.466099537036</v>
       </c>
       <c r="D12" t="n">
@@ -6763,7 +6959,7 @@
           <t>11.0000000</t>
         </is>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="16" t="n">
         <v>40897.466099537036</v>
       </c>
       <c r="J12" t="n">
@@ -6793,7 +6989,7 @@
       <c r="B13" t="n">
         <v>12.0</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="16" t="n">
         <v>40897.46680555555</v>
       </c>
       <c r="D13" t="n">
@@ -6815,7 +7011,7 @@
           <t>12.0000000</t>
         </is>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="16" t="n">
         <v>40897.46680555555</v>
       </c>
       <c r="J13" t="n">
@@ -6845,7 +7041,7 @@
       <c r="B14" t="n">
         <v>13.0</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="16" t="n">
         <v>40897.467511574076</v>
       </c>
       <c r="D14" t="n">
@@ -6867,7 +7063,7 @@
           <t>13.0000000</t>
         </is>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="16" t="n">
         <v>40897.467511574076</v>
       </c>
       <c r="J14" t="n">
@@ -6897,7 +7093,7 @@
       <c r="B15" t="n">
         <v>14.0</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="16" t="n">
         <v>40897.46821759259</v>
       </c>
       <c r="D15" t="n">
@@ -6919,7 +7115,7 @@
           <t>14.0000000</t>
         </is>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="16" t="n">
         <v>40897.46821759259</v>
       </c>
       <c r="J15" t="n">
@@ -6949,7 +7145,7 @@
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="16" t="n">
         <v>40897.46892361111</v>
       </c>
       <c r="D16" t="n">
@@ -6971,7 +7167,7 @@
           <t>15.0000000</t>
         </is>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="16" t="n">
         <v>40897.46892361111</v>
       </c>
       <c r="J16" t="n">
@@ -7001,7 +7197,7 @@
       <c r="B17" t="n">
         <v>16.0</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="16" t="n">
         <v>40897.46962962963</v>
       </c>
       <c r="D17" t="n">
@@ -7023,7 +7219,7 @@
           <t>16.0000000</t>
         </is>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="16" t="n">
         <v>40897.46962962963</v>
       </c>
       <c r="J17" t="n">
@@ -7047,13 +7243,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="16" t="n">
         <v>40897.47033564815</v>
       </c>
       <c r="D18" t="n">
@@ -7064,7 +7260,7 @@
           <t>LastName17</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="20" t="n">
         <v>18.0</v>
       </c>
       <c r="G18" t="n">
@@ -7075,7 +7271,7 @@
           <t>17.0000000</t>
         </is>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="16" t="n">
         <v>40897.47033564815</v>
       </c>
       <c r="J18" t="n">
@@ -7086,7 +7282,7 @@
           <t>LastName17</t>
         </is>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="20" t="n">
         <v>17.0</v>
       </c>
       <c r="M18" t="n">
@@ -7099,13 +7295,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="16" t="n">
         <v>40897.471041666664</v>
       </c>
       <c r="D19" t="n">
@@ -7116,7 +7312,7 @@
           <t>LastName18</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="20" t="n">
         <v>19.0</v>
       </c>
       <c r="G19" t="n">
@@ -7127,7 +7323,7 @@
           <t>18.0000000</t>
         </is>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="16" t="n">
         <v>40897.471041666664</v>
       </c>
       <c r="J19" t="n">
@@ -7138,7 +7334,7 @@
           <t>LastName18</t>
         </is>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="20" t="n">
         <v>18.0</v>
       </c>
       <c r="M19" t="n">
@@ -7151,13 +7347,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="20" t="n">
         <v>1.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="16" t="n">
         <v>40897.47174768519</v>
       </c>
       <c r="D20" t="n">
@@ -7168,7 +7364,7 @@
           <t>LastName19</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="20" t="n">
         <v>20.0</v>
       </c>
       <c r="G20" t="n">
@@ -7179,7 +7375,7 @@
           <t>19.0000000</t>
         </is>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="16" t="n">
         <v>40897.47174768519</v>
       </c>
       <c r="J20" t="n">
@@ -7190,7 +7386,7 @@
           <t>LastName19</t>
         </is>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="20" t="n">
         <v>19.0</v>
       </c>
       <c r="M20" t="n">
@@ -7209,7 +7405,7 @@
       <c r="B21" t="n">
         <v>20.0</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="16" t="n">
         <v>40897.472453703704</v>
       </c>
       <c r="D21" t="n">
@@ -7231,7 +7427,7 @@
           <t>20.0000000</t>
         </is>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="16" t="n">
         <v>40897.472453703704</v>
       </c>
       <c r="J21" t="n">
@@ -7273,12 +7469,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>ID (Source1)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>ID (Source2)</t>
         </is>
@@ -7395,372 +7591,372 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t># of Diffs</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>STAMP (Source1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>STAMP (Source2)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>PARTY_TYPE (Source2)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>NAME (Source1)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>NAME (Source2)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>FVALUE (Source1)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>FVALUE (Source2)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="9" t="inlineStr">
         <is>
           <t>BDVALUE (Source1)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="9" t="inlineStr">
         <is>
           <t>BDVALUE (Source2)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="21" t="n">
         <v>31.0</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D2" s="22" t="n">
         <v>40897.46355324074</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F2" s="21" t="n">
         <v>3.0</v>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="G2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>LastName31</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="n">
+      <c r="I2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="J2" s="21" t="n">
         <v>31.0</v>
       </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="n">
+      <c r="K2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="L2" s="21" t="n">
         <v>31.0</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="M2" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="N2" s="21" t="inlineStr">
         <is>
           <t>31.0000000</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="21" t="n">
         <v>62.0</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D3" s="22" t="n">
         <v>40897.46807870371</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>LastName62</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="n">
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="J3" s="21" t="n">
         <v>62.0</v>
       </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="n">
+      <c r="K3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="L3" s="21" t="n">
         <v>62.0</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="M3" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="N3" s="21" t="inlineStr">
         <is>
           <t>62.0000000</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="21" t="n">
         <v>93.0</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="n">
         <v>40897.47329861111</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F4" s="21" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>LastName93</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="n">
+      <c r="I4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="J4" s="21" t="n">
         <v>93.0</v>
       </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="K4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="L4" s="21" t="n">
         <v>93.0</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="M4" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="N4" s="21" t="inlineStr">
         <is>
           <t>93.0000000</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="21" t="n">
         <v>124.0</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="n">
         <v>40897.46115740741</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="n">
         <v>5.0</v>
       </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>LastName124</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="n">
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="n">
         <v>4.0</v>
       </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="K5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="L5" s="21" t="n">
         <v>4.0</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="M5" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="N5" s="21" t="inlineStr">
         <is>
           <t>4.0000000</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="21" t="n">
         <v>6.0</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="21" t="n">
         <v>133.0</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="22" t="n">
         <v>40897.467511574076</v>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="n">
         <v>0.0</v>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="F6" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="G6" s="21" t="inlineStr">
         <is>
           <t>LastName133</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="n">
         <v>13.0</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="n">
+      <c r="J6" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="K6" s="21" t="n">
         <v>13.0</v>
       </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>&lt;missing&gt;</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="L6" s="21" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
+      <c r="M6" s="21" t="inlineStr">
         <is>
           <t>13.0000000</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="21" t="inlineStr">
         <is>
           <t>&lt;missing&gt;</t>
         </is>

--- a/tests/data/desired/layoutlimitsreport.xlsx
+++ b/tests/data/desired/layoutlimitsreport.xlsx
@@ -338,8 +338,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
-    <col min="2" max="2" width="10.32421875" customWidth="true"/>
-    <col min="3" max="3" width="12.4609375" customWidth="true"/>
+    <col min="2" max="2" width="10.328125" customWidth="true"/>
+    <col min="3" max="3" width="12.46484375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,12 +518,12 @@
   <cols>
     <col min="1" max="1" width="14.03515625" customWidth="true"/>
     <col min="2" max="2" width="8.3984375" customWidth="true"/>
-    <col min="3" max="3" width="24.984375" customWidth="true"/>
+    <col min="3" max="3" width="24.98046875" customWidth="true"/>
     <col min="4" max="4" width="20.95703125" customWidth="true"/>
     <col min="5" max="5" width="26.35546875" customWidth="true"/>
     <col min="6" max="6" width="26.35546875" customWidth="true"/>
-    <col min="7" max="7" width="19.94921875" customWidth="true"/>
-    <col min="8" max="8" width="19.94921875" customWidth="true"/>
+    <col min="7" max="7" width="19.953125" customWidth="true"/>
+    <col min="8" max="8" width="19.953125" customWidth="true"/>
     <col min="9" max="9" width="18.390625" customWidth="true"/>
     <col min="10" max="10" width="18.390625" customWidth="true"/>
     <col min="11" max="11" width="21.62890625" customWidth="true"/>
@@ -922,13 +922,13 @@
     <col min="2" max="2" width="8.2421875" customWidth="true"/>
     <col min="3" max="3" width="20.95703125" customWidth="true"/>
     <col min="4" max="4" width="26.35546875" customWidth="true"/>
-    <col min="5" max="5" width="19.94921875" customWidth="true"/>
+    <col min="5" max="5" width="19.953125" customWidth="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true"/>
     <col min="7" max="7" width="21.62890625" customWidth="true"/>
     <col min="8" max="8" width="23.18359375" customWidth="true"/>
-    <col min="9" max="9" width="24.984375" customWidth="true"/>
+    <col min="9" max="9" width="24.98046875" customWidth="true"/>
     <col min="10" max="10" width="26.35546875" customWidth="true"/>
-    <col min="11" max="11" width="19.94921875" customWidth="true"/>
+    <col min="11" max="11" width="19.953125" customWidth="true"/>
     <col min="12" max="12" width="18.390625" customWidth="true"/>
     <col min="13" max="13" width="21.62890625" customWidth="true"/>
     <col min="14" max="14" width="23.18359375" customWidth="true"/>
@@ -1321,8 +1321,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
-    <col min="2" max="2" width="10.32421875" customWidth="true"/>
-    <col min="3" max="3" width="12.4609375" customWidth="true"/>
+    <col min="2" max="2" width="10.328125" customWidth="true"/>
+    <col min="3" max="3" width="12.46484375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1500,8 +1500,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
-    <col min="2" max="2" width="10.32421875" customWidth="true"/>
-    <col min="3" max="3" width="12.4609375" customWidth="true"/>
+    <col min="2" max="2" width="10.328125" customWidth="true"/>
+    <col min="3" max="3" width="12.46484375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1680,10 +1680,10 @@
   <cols>
     <col min="1" max="1" width="18.234375" customWidth="true"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="24.984375" customWidth="true"/>
-    <col min="4" max="4" width="24.984375" customWidth="true"/>
-    <col min="5" max="5" width="14.75390625" customWidth="true"/>
-    <col min="6" max="6" width="12.4609375" customWidth="true"/>
+    <col min="3" max="3" width="24.98046875" customWidth="true"/>
+    <col min="4" max="4" width="24.98046875" customWidth="true"/>
+    <col min="5" max="5" width="14.7578125" customWidth="true"/>
+    <col min="6" max="6" width="12.46484375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="C1" s="4" t="inlineStr">
         <is>
-          <t>Source1</t>
+          <t>Value in Source1</t>
         </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>Source2</t>
+          <t>Value in Source2</t>
         </is>
       </c>
       <c r="E1" s="4" t="inlineStr">
@@ -4990,9 +4990,9 @@
   <cols>
     <col min="1" max="1" width="18.234375" customWidth="true"/>
     <col min="2" max="2" width="14.03515625" customWidth="true"/>
-    <col min="3" max="3" width="17.546875" customWidth="true"/>
-    <col min="4" max="4" width="22.87109375" customWidth="true"/>
-    <col min="5" max="5" width="14.75390625" customWidth="true"/>
+    <col min="3" max="3" width="17.55078125" customWidth="true"/>
+    <col min="4" max="4" width="22.875" customWidth="true"/>
+    <col min="5" max="5" width="14.7578125" customWidth="true"/>
     <col min="6" max="6" width="14.484375" customWidth="true"/>
     <col min="7" max="7" width="15.78515625" customWidth="true"/>
   </cols>
@@ -5182,12 +5182,12 @@
   <cols>
     <col min="1" max="1" width="14.03515625" customWidth="true"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="24.984375" customWidth="true"/>
-    <col min="4" max="4" width="24.984375" customWidth="true"/>
+    <col min="3" max="3" width="24.98046875" customWidth="true"/>
+    <col min="4" max="4" width="24.98046875" customWidth="true"/>
     <col min="5" max="5" width="26.35546875" customWidth="true"/>
     <col min="6" max="6" width="26.35546875" customWidth="true"/>
-    <col min="7" max="7" width="19.94921875" customWidth="true"/>
-    <col min="8" max="8" width="19.94921875" customWidth="true"/>
+    <col min="7" max="7" width="19.953125" customWidth="true"/>
+    <col min="8" max="8" width="19.953125" customWidth="true"/>
     <col min="9" max="9" width="18.390625" customWidth="true"/>
     <col min="10" max="10" width="18.390625" customWidth="true"/>
     <col min="11" max="11" width="21.62890625" customWidth="true"/>
@@ -6324,15 +6324,15 @@
   <cols>
     <col min="1" max="1" width="14.03515625" customWidth="true"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="24.984375" customWidth="true"/>
+    <col min="3" max="3" width="24.98046875" customWidth="true"/>
     <col min="4" max="4" width="26.35546875" customWidth="true"/>
-    <col min="5" max="5" width="19.94921875" customWidth="true"/>
+    <col min="5" max="5" width="19.953125" customWidth="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true"/>
     <col min="7" max="7" width="21.62890625" customWidth="true"/>
     <col min="8" max="8" width="23.18359375" customWidth="true"/>
-    <col min="9" max="9" width="24.984375" customWidth="true"/>
+    <col min="9" max="9" width="24.98046875" customWidth="true"/>
     <col min="10" max="10" width="26.35546875" customWidth="true"/>
-    <col min="11" max="11" width="19.94921875" customWidth="true"/>
+    <col min="11" max="11" width="19.953125" customWidth="true"/>
     <col min="12" max="12" width="18.390625" customWidth="true"/>
     <col min="13" max="13" width="21.62890625" customWidth="true"/>
     <col min="14" max="14" width="23.18359375" customWidth="true"/>
@@ -7464,8 +7464,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.48828125" customWidth="true"/>
-    <col min="2" max="2" width="16.48828125" customWidth="true"/>
+    <col min="1" max="1" width="16.4921875" customWidth="true"/>
+    <col min="2" max="2" width="16.4921875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7576,12 +7576,12 @@
   <cols>
     <col min="1" max="1" width="14.03515625" customWidth="true"/>
     <col min="2" max="2" width="8.2421875" customWidth="true"/>
-    <col min="3" max="3" width="24.984375" customWidth="true"/>
-    <col min="4" max="4" width="24.984375" customWidth="true"/>
+    <col min="3" max="3" width="24.98046875" customWidth="true"/>
+    <col min="4" max="4" width="24.98046875" customWidth="true"/>
     <col min="5" max="5" width="26.35546875" customWidth="true"/>
     <col min="6" max="6" width="26.35546875" customWidth="true"/>
-    <col min="7" max="7" width="19.94921875" customWidth="true"/>
-    <col min="8" max="8" width="19.94921875" customWidth="true"/>
+    <col min="7" max="7" width="19.953125" customWidth="true"/>
+    <col min="8" max="8" width="19.953125" customWidth="true"/>
     <col min="9" max="9" width="18.390625" customWidth="true"/>
     <col min="10" max="10" width="18.390625" customWidth="true"/>
     <col min="11" max="11" width="21.62890625" customWidth="true"/>
